--- a/players_stats/Jeff Pendergraph.xlsx
+++ b/players_stats/Jeff Pendergraph.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ3"/>
+  <dimension ref="A1:AI8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -369,175 +369,170 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
+          <t>Season</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Season</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Tm</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Tm</t>
+          <t>Lg</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Lg</t>
+          <t>Pos</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Pos</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>MP</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>MP</t>
+          <t>FG</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>FG</t>
+          <t>FGA</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>FGA</t>
+          <t>FG%</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>FG%</t>
+          <t>3P</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>3P</t>
+          <t>3PA</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>3PA</t>
+          <t>3P%</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>3P%</t>
+          <t>2P</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>2P</t>
+          <t>2PA</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>2PA</t>
+          <t>2P%</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>2P%</t>
+          <t>eFG%</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>eFG%</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>FTA</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>FTA</t>
+          <t>FT%</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>FT%</t>
+          <t>ORB</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>ORB</t>
+          <t>DRB</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>DRB</t>
+          <t>TRB</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>TRB</t>
+          <t>AST</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>AST</t>
+          <t>STL</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>STL</t>
+          <t>BLK</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>BLK</t>
+          <t>TOV</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>TOV</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>PTS</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>PTS</t>
+          <t>Height</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>Height</t>
+          <t>Weight</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>Weight</t>
+          <t>ShootingHand</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>ShootingHand</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>draftRank</t>
         </is>
@@ -547,238 +542,1183 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2009-10</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1973-74</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>23</v>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SDA</t>
+          <t>NBA</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ABA</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>11</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="n">
-        <v>68</v>
-      </c>
-      <c r="K2" t="n">
-        <v>8</v>
-      </c>
-      <c r="L2" t="n">
-        <v>30</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.267</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" t="n">
-        <v>3</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.333</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>7</v>
-      </c>
-      <c r="R2" t="n">
-        <v>27</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.259</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.283</v>
-      </c>
-      <c r="U2" t="n">
-        <v>10</v>
-      </c>
-      <c r="V2" t="n">
-        <v>13</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.769</v>
-      </c>
-      <c r="X2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>4</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>27</v>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>405</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>.662</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>.662</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>.662</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>.900</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 206</t>
+        </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 188</t>
+          <t xml:space="preserve"> 108 </t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 83 </t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
           <t>Right</t>
         </is>
       </c>
-      <c r="AJ2" t="n">
-        <v>112</v>
+      <c r="AI2" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2011-12</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>.417</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>.417</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>.417</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>.571</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 206</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 108 </t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AI3" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2012-13</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>PF</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>369</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>.484</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>.500</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>.484</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>.492</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>.913</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 206</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 108 </t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AI4" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2013-14</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>PF</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>.580</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>.580</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>.580</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>.691</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 206</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 108 </t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AI5" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2014-15</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>PF</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>383</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>.579</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>.579</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>.579</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>.750</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 206</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 108 </t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AI6" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2015-16</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>LAC</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>.522</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>.000</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>.545</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>.522</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>1.000</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 206</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 108 </t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AI7" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>Career</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>ABA</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>11</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="n">
-        <v>68</v>
-      </c>
-      <c r="K3" t="n">
-        <v>8</v>
-      </c>
-      <c r="L3" t="n">
-        <v>30</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.267</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" t="n">
-        <v>3</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.333</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>7</v>
-      </c>
-      <c r="R3" t="n">
-        <v>27</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.259</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.283</v>
-      </c>
-      <c r="U3" t="n">
-        <v>10</v>
-      </c>
-      <c r="V3" t="n">
-        <v>13</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.769</v>
-      </c>
-      <c r="X3" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>4</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>27</v>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 188</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 83 </t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2322</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>287</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>519</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>.553</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>.400</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>514</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>.554</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>.555</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>.776</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>436</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>632</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>690</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 206</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 108 </t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>Right</t>
         </is>
       </c>
-      <c r="AJ3" t="n">
-        <v>112</v>
+      <c r="AI8" t="n">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
